--- a/JPADSandBox_v2/out/ATR-72_AVL/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/ATR-72_AVL/WEIGHTS/Weights.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="70">
   <si>
     <t>Description</t>
   </si>
@@ -64,6 +64,12 @@
     <t>Maximum Passengers Mass</t>
   </si>
   <si>
+    <t>Actual Passengers Mass</t>
+  </si>
+  <si>
+    <t>Maximum Fuel Mass</t>
+  </si>
+  <si>
     <t>Fuel Mass</t>
   </si>
   <si>
@@ -88,6 +94,9 @@
     <t>Operating Item Mass</t>
   </si>
   <si>
+    <t>Furnishings and Equipments Mass</t>
+  </si>
+  <si>
     <t>Trapped Fuel Oil Mass</t>
   </si>
   <si>
@@ -106,6 +115,9 @@
     <t>Maximum Passengers Weight</t>
   </si>
   <si>
+    <t>Actual Passengers Weight</t>
+  </si>
+  <si>
     <t>Fuel Weight</t>
   </si>
   <si>
@@ -128,6 +140,9 @@
   </si>
   <si>
     <t>Operating Item Weight</t>
+  </si>
+  <si>
+    <t>Furnishings and Equipments Weight</t>
   </si>
   <si>
     <t>Trapped Fuel Oil Weight</t>
@@ -280,7 +295,11 @@
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="25"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="35"/>
+  <cols>
+    <col min="2" max="2" width="8.0" customWidth="true"/>
+    <col min="3" max="3" width="15.0" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -301,7 +320,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>890.2719999999999</v>
+        <v>3300.0</v>
       </c>
     </row>
     <row r="3">
@@ -323,7 +342,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>99.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="5">
@@ -339,7 +358,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>25630.4249615041</v>
+        <v>43679.328252331514</v>
       </c>
     </row>
     <row r="7">
@@ -350,7 +369,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>24625.45591388506</v>
+        <v>43311.328252331514</v>
       </c>
     </row>
     <row r="8">
@@ -361,7 +380,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>22519.310322496553</v>
+        <v>42368.94840476157</v>
       </c>
     </row>
     <row r="9">
@@ -372,7 +391,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>7128.0</v>
+        <v>6624.0</v>
       </c>
     </row>
     <row r="10">
@@ -383,7 +402,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>4954.49177994087</v>
+        <v>6256.0</v>
       </c>
     </row>
     <row r="11">
@@ -394,7 +413,7 @@
         <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>229.54364550000003</v>
+        <v>4954.49177994087</v>
       </c>
     </row>
     <row r="12">
@@ -405,7 +424,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>20066.96413394419</v>
+        <v>21073.947855899965</v>
       </c>
     </row>
     <row r="13">
@@ -416,7 +435,7 @@
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>19670.96413394419</v>
+        <v>229.54364550000003</v>
       </c>
     </row>
     <row r="14">
@@ -427,7 +446,7 @@
         <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>12938.964133944195</v>
+        <v>22605.380396431556</v>
       </c>
     </row>
     <row r="15">
@@ -438,7 +457,7 @@
         <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>11709.420488444193</v>
+        <v>22237.380396431556</v>
       </c>
     </row>
     <row r="16">
@@ -449,7 +468,7 @@
         <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>12123.464488444197</v>
+        <v>15981.380396431558</v>
       </c>
     </row>
     <row r="17">
@@ -460,7 +479,7 @@
         <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>585.9559999999999</v>
+        <v>15751.836750931556</v>
       </c>
     </row>
     <row r="18">
@@ -471,23 +490,29 @@
         <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>1000.0</v>
+        <v>14673.99675093156</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1077.8400000000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C20" t="n">
-        <v>251348.60694873414</v>
+        <v>1251.8725753832337</v>
       </c>
     </row>
     <row r="21">
@@ -495,32 +520,26 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C21" t="n">
-        <v>241493.22723790086</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="n">
-        <v>220838.99457411078</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
         <v>27</v>
       </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
       <c r="C23" t="n">
-        <v>69901.80119999999</v>
+        <v>428347.8844057267</v>
       </c>
     </row>
     <row r="24">
@@ -528,10 +547,10 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C24" t="n">
-        <v>48586.96681375712</v>
+        <v>424739.0372057267</v>
       </c>
     </row>
     <row r="25">
@@ -539,10 +558,10 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C25" t="n">
-        <v>2251.0541911425744</v>
+        <v>415497.4478735549</v>
       </c>
     </row>
     <row r="26">
@@ -550,10 +569,10 @@
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C26" t="n">
-        <v>196789.69382414376</v>
+        <v>64959.24959999998</v>
       </c>
     </row>
     <row r="27">
@@ -561,10 +580,10 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C27" t="n">
-        <v>192906.26042414375</v>
+        <v>61350.402399999984</v>
       </c>
     </row>
     <row r="28">
@@ -572,10 +591,10 @@
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>126887.8926241438</v>
+        <v>48586.96681375712</v>
       </c>
     </row>
     <row r="29">
@@ -583,10 +602,10 @@
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C29" t="n">
-        <v>114830.18843300123</v>
+        <v>2251.0541911425744</v>
       </c>
     </row>
     <row r="30">
@@ -594,10 +613,10 @@
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C30" t="n">
-        <v>118890.57302560126</v>
+        <v>221683.05366466544</v>
       </c>
     </row>
     <row r="31">
@@ -605,10 +624,10 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C31" t="n">
-        <v>5746.265407399998</v>
+        <v>218074.20646466548</v>
       </c>
     </row>
     <row r="32">
@@ -616,10 +635,65 @@
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C32" t="n">
-        <v>9806.649999999998</v>
+        <v>156723.80406466546</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" t="n">
+        <v>154472.7498735229</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" t="n">
+        <v>143902.75023752294</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" t="n">
+        <v>10569.999635999997</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" t="n">
+        <v>12276.676191381986</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -633,7 +707,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="25"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="35"/>
+  <cols>
+    <col min="2" max="2" width="8.0" customWidth="true"/>
+    <col min="3" max="3" width="15.0" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -646,23 +724,23 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>3000.0</v>
+        <v>8887.499999999996</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -678,105 +756,105 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C6" t="n">
-        <v>3234.0</v>
+        <v>3292.0</v>
       </c>
       <c r="D6" t="n">
-        <v>7.8</v>
+        <v>-62.959212376933884</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C7" t="n">
-        <v>2392.0</v>
+        <v>2849.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-20.266666666666666</v>
+        <v>-67.94374120956398</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C8" t="n">
-        <v>3067.0</v>
+        <v>3992.0</v>
       </c>
       <c r="D8" t="n">
-        <v>2.2333333333333334</v>
+        <v>-55.08298171589309</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C9" t="n">
-        <v>2751.0</v>
+        <v>4600.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-8.3</v>
+        <v>-48.24191279887481</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C10" t="n">
         <v>2491.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-16.966666666666665</v>
+        <v>-71.97187060478198</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C11" t="n">
         <v>3698.0</v>
       </c>
       <c r="D11" t="n">
-        <v>23.266666666666666</v>
+        <v>-58.39099859353022</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>2938.833333333333</v>
+        <v>3487.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-2.038888888888883</v>
+        <v>-60.76511954992965</v>
       </c>
     </row>
   </sheetData>
@@ -790,7 +868,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="25"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="35"/>
+  <cols>
+    <col min="2" max="2" width="8.0" customWidth="true"/>
+    <col min="3" max="3" width="15.0" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -803,23 +885,23 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>2000.0</v>
+        <v>5924.999999999998</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -830,7 +912,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -846,105 +928,105 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C7" t="n">
-        <v>2424.0</v>
+        <v>2868.0</v>
       </c>
       <c r="D7" t="n">
-        <v>21.2</v>
+        <v>-51.59493670886074</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C8" t="n">
-        <v>1821.0</v>
+        <v>3398.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.95</v>
+        <v>-42.649789029535846</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C9" t="n">
-        <v>2077.0</v>
+        <v>5346.0</v>
       </c>
       <c r="D9" t="n">
-        <v>3.85</v>
+        <v>-9.77215189873415</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C10" t="n">
         <v>2299.0</v>
       </c>
       <c r="D10" t="n">
-        <v>14.95</v>
+        <v>-61.19831223628691</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C11" t="n">
-        <v>2489.0</v>
+        <v>6469.0</v>
       </c>
       <c r="D11" t="n">
-        <v>24.45</v>
+        <v>9.181434599156152</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C12" t="n">
-        <v>2247.0</v>
+        <v>4548.0</v>
       </c>
       <c r="D12" t="n">
-        <v>12.35</v>
+        <v>-23.240506329113902</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>1908.1428571428569</v>
+        <v>3561.142857142857</v>
       </c>
       <c r="D13" t="n">
-        <v>-4.592857142857143</v>
+        <v>-39.89632308619648</v>
       </c>
     </row>
   </sheetData>
@@ -958,7 +1040,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="25"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="35"/>
+  <cols>
+    <col min="2" max="2" width="8.0" customWidth="true"/>
+    <col min="3" max="3" width="15.0" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -971,23 +1057,23 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>600.0</v>
+        <v>888.7499999999998</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -998,7 +1084,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -1014,63 +1100,63 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C7" t="n">
         <v>258.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-57.0</v>
+        <v>-70.97046413502109</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C8" t="n">
-        <v>149.0</v>
+        <v>152.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-75.16666666666667</v>
+        <v>-82.89732770745428</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C9" t="n">
-        <v>136.0</v>
+        <v>190.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-77.33333333333333</v>
+        <v>-78.62165963431785</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>181.0</v>
+        <v>200.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-69.83333333333333</v>
+        <v>-77.49648382559772</v>
       </c>
     </row>
   </sheetData>
@@ -1084,7 +1170,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="25"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="35"/>
+  <cols>
+    <col min="2" max="2" width="8.0" customWidth="true"/>
+    <col min="3" max="3" width="15.0" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -1097,23 +1187,23 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>400.0</v>
+        <v>888.7499999999998</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -1124,7 +1214,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -1140,49 +1230,49 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C7" t="n">
         <v>330.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-17.5</v>
+        <v>-62.86919831223628</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C8" t="n">
-        <v>229.0</v>
+        <v>292.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-42.75</v>
+        <v>-67.14486638537271</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>279.5</v>
+        <v>311.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-30.124999999999996</v>
+        <v>-65.00703234880447</v>
       </c>
     </row>
   </sheetData>
@@ -1196,7 +1286,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="25"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="35"/>
+  <cols>
+    <col min="2" max="2" width="8.0" customWidth="true"/>
+    <col min="3" max="3" width="15.0" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -1209,32 +1303,32 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>900.0</v>
+        <v>888.7499999999998</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>628.6666666666665</v>
+        <v>509.33333333333326</v>
       </c>
       <c r="D3" t="n">
-        <v>-76.71604938271604</v>
+        <v>-80.89701515861852</v>
       </c>
     </row>
     <row r="4">
@@ -1244,7 +1338,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
@@ -1254,12 +1348,12 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -1268,55 +1362,55 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C9" t="n">
-        <v>235.0</v>
+        <v>52.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-47.777777777777764</v>
+        <v>-88.29817158931083</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C10" t="n">
-        <v>514.0</v>
+        <v>520.0</v>
       </c>
       <c r="D10" t="n">
-        <v>14.22222222222225</v>
+        <v>17.01828410689173</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C11" t="n">
-        <v>194.0</v>
+        <v>192.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-56.88888888888888</v>
+        <v>-56.79324894514767</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>314.33333333333326</v>
+        <v>254.66666666666663</v>
       </c>
     </row>
     <row r="13">
@@ -1326,12 +1420,12 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -1340,55 +1434,55 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C16" t="n">
-        <v>235.0</v>
+        <v>52.0</v>
       </c>
       <c r="D16" t="n">
-        <v>-47.777777777777764</v>
+        <v>-88.29817158931083</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C17" t="n">
-        <v>514.0</v>
+        <v>520.0</v>
       </c>
       <c r="D17" t="n">
-        <v>14.22222222222225</v>
+        <v>17.01828410689173</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C18" t="n">
-        <v>194.0</v>
+        <v>192.0</v>
       </c>
       <c r="D18" t="n">
-        <v>-56.88888888888888</v>
+        <v>-56.79324894514767</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>314.33333333333326</v>
+        <v>254.66666666666663</v>
       </c>
     </row>
     <row r="20">
@@ -1407,7 +1501,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="25"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="35"/>
+  <cols>
+    <col min="2" max="2" width="8.0" customWidth="true"/>
+    <col min="3" max="3" width="15.0" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -1422,7 +1520,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -1433,13 +1531,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>1447.8668450399996</v>
+        <v>1329.141763746719</v>
       </c>
     </row>
     <row r="4">
@@ -1449,7 +1547,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
@@ -1459,12 +1557,12 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -1475,13 +1573,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>723.9334225199998</v>
+        <v>664.5708818733597</v>
       </c>
     </row>
     <row r="10">
@@ -1491,12 +1589,12 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -1507,13 +1605,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>723.9334225199998</v>
+        <v>664.5708818733597</v>
       </c>
     </row>
     <row r="14">
@@ -1532,7 +1630,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="25"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="35"/>
+  <cols>
+    <col min="2" max="2" width="8.0" customWidth="true"/>
+    <col min="3" max="3" width="15.0" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -1545,18 +1647,18 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>500.0</v>
+        <v>2369.999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -1566,77 +1668,77 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>840.0</v>
+        <v>1308.0</v>
       </c>
       <c r="D5" t="n">
-        <v>68.0</v>
+        <v>-44.810126582278464</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>1031.0</v>
+        <v>1747.0</v>
       </c>
       <c r="D6" t="n">
-        <v>106.2</v>
+        <v>-26.286919831223603</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>1166.0</v>
+        <v>1976.0</v>
       </c>
       <c r="D7" t="n">
-        <v>133.2</v>
+        <v>-16.624472573839633</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>1005.0</v>
+        <v>1770.0</v>
       </c>
       <c r="D8" t="n">
-        <v>101.0</v>
+        <v>-25.316455696202503</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>1010.5</v>
+        <v>1700.25</v>
       </c>
       <c r="D9" t="n">
-        <v>102.09999999999997</v>
+        <v>-28.259493670886048</v>
       </c>
     </row>
   </sheetData>
@@ -1650,7 +1752,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="25"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="35"/>
+  <cols>
+    <col min="2" max="2" width="8.0" customWidth="true"/>
+    <col min="3" max="3" width="15.0" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -1663,18 +1769,18 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>2000.0</v>
+        <v>2369.999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -1684,35 +1790,35 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>2477.0</v>
+        <v>2324.0</v>
       </c>
       <c r="D5" t="n">
-        <v>23.85</v>
+        <v>-1.9409282700421564</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>2476.9547862613454</v>
+        <v>2324.2562213254223</v>
       </c>
       <c r="D6" t="n">
-        <v>23.84773931306728</v>
+        <v>-1.9301172436530485</v>
       </c>
     </row>
   </sheetData>
